--- a/Data/Test set.xlsx
+++ b/Data/Test set.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://basf-my.sharepoint.com/personal/brozosch_basfad_basf_net/Documents/Desktop/PhD related files/Project CMC/Final_datasets/CMC_surf_ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="11_3FBD74E4056B5E0F62355476585DCE3A87476196" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E8B240-BE6E-4BF6-AF4A-9FC639A8285E}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="11_3FBD74E4056B5E0F62355476585DCE3A87476196" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A23C0AB5-92F4-4E26-9FCB-F9E29A5ED6BA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="615" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MTL" sheetId="1" r:id="rId1"/>
+    <sheet name="CMC_SL" sheetId="2" r:id="rId2"/>
+    <sheet name="SEC_SL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MTL!$A$1:$G$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>String</t>
   </si>
@@ -775,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,10 +1323,10 @@
         <v>3.0771999999999999</v>
       </c>
       <c r="F27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,7 +2025,1537 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G67" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D391ABDC-FDDE-4D68-95EF-420B20433652}">
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.5314999999999999</v>
+      </c>
+      <c r="C2">
+        <v>3.4984970092773442</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.9031</v>
+      </c>
+      <c r="C3">
+        <v>2.0582315921783452</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4.2095000000000002</v>
+      </c>
+      <c r="C4">
+        <v>4.0006899833679199</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.6532</v>
+      </c>
+      <c r="C5">
+        <v>3.6345829963684082</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.0792000000000002</v>
+      </c>
+      <c r="C6">
+        <v>5.1745424270629883</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.908385038375854</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.1760999999999999</v>
+      </c>
+      <c r="C8">
+        <v>4.1707973480224609</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.3222</v>
+      </c>
+      <c r="C9">
+        <v>3.0085549354553218</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3.5145</v>
+      </c>
+      <c r="C10">
+        <v>3.536956787109375</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.4771000000000001</v>
+      </c>
+      <c r="C11">
+        <v>3.5807051658630371</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.8751</v>
+      </c>
+      <c r="C12">
+        <v>2.380150318145752</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2.4472</v>
+      </c>
+      <c r="C13">
+        <v>2.4395842552185059</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3.8260999999999998</v>
+      </c>
+      <c r="C14">
+        <v>3.389961957931519</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.3978999999999999</v>
+      </c>
+      <c r="C15">
+        <v>3.189266681671143</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="C16">
+        <v>3.490090131759644</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5.9589999999999996</v>
+      </c>
+      <c r="C17">
+        <v>5.2180700302124023</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3.7896000000000001</v>
+      </c>
+      <c r="C18">
+        <v>3.8318848609924321</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.9542000000000002</v>
+      </c>
+      <c r="C19">
+        <v>2.8865571022033691</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4.0827999999999998</v>
+      </c>
+      <c r="C20">
+        <v>3.891019344329834</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3.9112</v>
+      </c>
+      <c r="C21">
+        <v>3.91405177116394</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="C22">
+        <v>3.2253997325897221</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2.2553000000000001</v>
+      </c>
+      <c r="C23">
+        <v>2.5352661609649658</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.90233421325683594</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1.6232</v>
+      </c>
+      <c r="C25">
+        <v>1.327792644500732</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4.6021000000000001</v>
+      </c>
+      <c r="C26">
+        <v>4.3985414505004883</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="C27">
+        <v>4.3458971977233887</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5.0205292701721191</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3.2923</v>
+      </c>
+      <c r="C29">
+        <v>3.4900391101837158</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="C30">
+        <v>1.2417193651199341</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4.5236999999999998</v>
+      </c>
+      <c r="C31">
+        <v>4.305844783782959</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4.8129</v>
+      </c>
+      <c r="C32">
+        <v>4.637883186340332</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2.4712999999999998</v>
+      </c>
+      <c r="C33">
+        <v>2.414381742477417</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3.3502000000000001</v>
+      </c>
+      <c r="C34">
+        <v>3.3161575794219971</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2.8633000000000002</v>
+      </c>
+      <c r="C35">
+        <v>3.1502044200897221</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="C36">
+        <v>4.1956076622009277</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4.3616999999999999</v>
+      </c>
+      <c r="C37">
+        <v>4.2275667190551758</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4.0899000000000001</v>
+      </c>
+      <c r="C38">
+        <v>3.7338404655456539</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2.4828999999999999</v>
+      </c>
+      <c r="C39">
+        <v>2.4732375144958501</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4.3978999999999999</v>
+      </c>
+      <c r="C40">
+        <v>3.9479892253875728</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2.0969000000000002</v>
+      </c>
+      <c r="C41">
+        <v>2.2639145851135249</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3.3978999999999999</v>
+      </c>
+      <c r="C42">
+        <v>3.1391005516052251</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1.3978999999999999</v>
+      </c>
+      <c r="C43">
+        <v>1.9556243419647219</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3.8195000000000001</v>
+      </c>
+      <c r="C44">
+        <v>3.9781768321990971</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4.8451000000000004</v>
+      </c>
+      <c r="C45">
+        <v>4.5853452682495117</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1.38</v>
+      </c>
+      <c r="C46">
+        <v>1.184336304664612</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3.7633999999999999</v>
+      </c>
+      <c r="C47">
+        <v>3.770663738250732</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3.6627999999999998</v>
+      </c>
+      <c r="C48">
+        <v>3.4749946594238281</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3.5682</v>
+      </c>
+      <c r="C49">
+        <v>3.481475830078125</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2.5741512775421138</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3.5562999999999998</v>
+      </c>
+      <c r="C51">
+        <v>3.7373924255371089</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3.2787999999999999</v>
+      </c>
+      <c r="C52">
+        <v>2.8410356044769292</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5.5453000000000001</v>
+      </c>
+      <c r="C53">
+        <v>5.3346247673034668</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2.4771000000000001</v>
+      </c>
+      <c r="C54">
+        <v>2.4606976509094238</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3.1139000000000001</v>
+      </c>
+      <c r="C55">
+        <v>3.2859539985656738</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1.2123186588287349</v>
+      </c>
+      <c r="D56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>4.0414000000000003</v>
+      </c>
+      <c r="C57">
+        <v>4.1397619247436523</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1.7403999999999999</v>
+      </c>
+      <c r="C58">
+        <v>2.185949325561523</v>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3.6812</v>
+      </c>
+      <c r="C59">
+        <v>3.3018002510070801</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4.3423999999999996</v>
+      </c>
+      <c r="C60">
+        <v>4.2570476531982422</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3.5562999999999998</v>
+      </c>
+      <c r="C61">
+        <v>3.77656102180481</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5.5911</v>
+      </c>
+      <c r="C62">
+        <v>5.578892707824707</v>
+      </c>
+      <c r="D62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3.7559</v>
+      </c>
+      <c r="C63">
+        <v>4.0513968467712402</v>
+      </c>
+      <c r="D63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3.4472</v>
+      </c>
+      <c r="C64">
+        <v>3.3041396141052251</v>
+      </c>
+      <c r="D64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2.1139000000000001</v>
+      </c>
+      <c r="C65">
+        <v>1.787359476089478</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5.7243000000000004</v>
+      </c>
+      <c r="C66">
+        <v>5.8869733810424796</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EB1FD6-4F08-4563-9ECE-0C82CB6E39D4}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="32.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.37</v>
+      </c>
+      <c r="C2">
+        <v>3.592587947845459</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.7</v>
+      </c>
+      <c r="C3">
+        <v>2.944419384002686</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.34</v>
+      </c>
+      <c r="C4">
+        <v>1.416417121887207</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2.6</v>
+      </c>
+      <c r="C5">
+        <v>2.690217256546021</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>3.35</v>
+      </c>
+      <c r="C6">
+        <v>4.305842399597168</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>4.74</v>
+      </c>
+      <c r="C7">
+        <v>4.1325654983520508</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3.1542072296142578</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>3.16</v>
+      </c>
+      <c r="C9">
+        <v>2.8061618804931641</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1.93</v>
+      </c>
+      <c r="C10">
+        <v>3.5190529823303218</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>2.15</v>
+      </c>
+      <c r="C11">
+        <v>2.9873478412628169</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>3.33</v>
+      </c>
+      <c r="C12">
+        <v>2.9383997917175289</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>2.7</v>
+      </c>
+      <c r="C13">
+        <v>2.897785902023315</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>1.55</v>
+      </c>
+      <c r="C14">
+        <v>1.4769635200500491</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>2.5</v>
+      </c>
+      <c r="C15">
+        <v>2.5399456024169922</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>4.0385522842407227</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>3.35</v>
+      </c>
+      <c r="C17">
+        <v>3.3642151355743408</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <v>2.8700649738311772</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>3.56</v>
+      </c>
+      <c r="C19">
+        <v>3.765027523040771</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>2.5</v>
+      </c>
+      <c r="C20">
+        <v>2.864713191986084</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>4.57</v>
+      </c>
+      <c r="C21">
+        <v>3.259132862091064</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>4.26</v>
+      </c>
+      <c r="C22">
+        <v>3.072517871856689</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>4.46</v>
+      </c>
+      <c r="C23">
+        <v>4.0708713531494141</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>2.15</v>
+      </c>
+      <c r="C24">
+        <v>3.073291540145874</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>6.3</v>
+      </c>
+      <c r="C25">
+        <v>4.1928391456604004</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>